--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Fgf1-Cd44.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Fgf1-Cd44.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Cd44</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.539546354398402</v>
+        <v>0.5909779999999999</v>
       </c>
       <c r="H2">
-        <v>0.539546354398402</v>
+        <v>1.772934</v>
       </c>
       <c r="I2">
-        <v>0.1444685474782753</v>
+        <v>0.1360667523977957</v>
       </c>
       <c r="J2">
-        <v>0.1444685474782753</v>
+        <v>0.1360667523977957</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.27821416682553</v>
+        <v>10.45505566666667</v>
       </c>
       <c r="N2">
-        <v>8.27821416682553</v>
+        <v>31.365167</v>
       </c>
       <c r="O2">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219224</v>
       </c>
       <c r="P2">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219226</v>
       </c>
       <c r="Q2">
-        <v>4.466480274639919</v>
+        <v>6.178707887775333</v>
       </c>
       <c r="R2">
-        <v>4.466480274639919</v>
+        <v>55.60837098997799</v>
       </c>
       <c r="S2">
-        <v>0.00102066646494112</v>
+        <v>0.001116054714278601</v>
       </c>
       <c r="T2">
-        <v>0.00102066646494112</v>
+        <v>0.001116054714278602</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.539546354398402</v>
+        <v>0.5909779999999999</v>
       </c>
       <c r="H3">
-        <v>0.539546354398402</v>
+        <v>1.772934</v>
       </c>
       <c r="I3">
-        <v>0.1444685474782753</v>
+        <v>0.1360667523977957</v>
       </c>
       <c r="J3">
-        <v>0.1444685474782753</v>
+        <v>0.1360667523977957</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>164.108091289101</v>
+        <v>167.4277343333333</v>
       </c>
       <c r="N3">
-        <v>164.108091289101</v>
+        <v>502.283203</v>
       </c>
       <c r="O3">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="P3">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="Q3">
-        <v>88.54392238231461</v>
+        <v>98.94610758084465</v>
       </c>
       <c r="R3">
-        <v>88.54392238231461</v>
+        <v>890.5149682276019</v>
       </c>
       <c r="S3">
-        <v>0.0202337873880488</v>
+        <v>0.01787255067416366</v>
       </c>
       <c r="T3">
-        <v>0.0202337873880488</v>
+        <v>0.01787255067416366</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.539546354398402</v>
+        <v>0.5909779999999999</v>
       </c>
       <c r="H4">
-        <v>0.539546354398402</v>
+        <v>1.772934</v>
       </c>
       <c r="I4">
-        <v>0.1444685474782753</v>
+        <v>0.1360667523977957</v>
       </c>
       <c r="J4">
-        <v>0.1444685474782753</v>
+        <v>0.1360667523977957</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>151.920568160173</v>
+        <v>227.495678</v>
       </c>
       <c r="N4">
-        <v>151.920568160173</v>
+        <v>682.487034</v>
       </c>
       <c r="O4">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="P4">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="Q4">
-        <v>81.9681887089553</v>
+        <v>134.444940793084</v>
       </c>
       <c r="R4">
-        <v>81.9681887089553</v>
+        <v>1210.004467137756</v>
       </c>
       <c r="S4">
-        <v>0.01873112076240855</v>
+        <v>0.02428467451583216</v>
       </c>
       <c r="T4">
-        <v>0.01873112076240855</v>
+        <v>0.02428467451583217</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.539546354398402</v>
+        <v>0.5909779999999999</v>
       </c>
       <c r="H5">
-        <v>0.539546354398402</v>
+        <v>1.772934</v>
       </c>
       <c r="I5">
-        <v>0.1444685474782753</v>
+        <v>0.1360667523977957</v>
       </c>
       <c r="J5">
-        <v>0.1444685474782753</v>
+        <v>0.1360667523977957</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>145.637165001401</v>
+        <v>147.9815903333333</v>
       </c>
       <c r="N5">
-        <v>145.637165001401</v>
+        <v>443.9447709999999</v>
       </c>
       <c r="O5">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="P5">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="Q5">
-        <v>78.57800144142446</v>
+        <v>87.45386429201264</v>
       </c>
       <c r="R5">
-        <v>78.57800144142446</v>
+        <v>787.0847786281138</v>
       </c>
       <c r="S5">
-        <v>0.01795640549645609</v>
+        <v>0.01579671661094245</v>
       </c>
       <c r="T5">
-        <v>0.01795640549645609</v>
+        <v>0.01579671661094246</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.539546354398402</v>
+        <v>0.5909779999999999</v>
       </c>
       <c r="H6">
-        <v>0.539546354398402</v>
+        <v>1.772934</v>
       </c>
       <c r="I6">
-        <v>0.1444685474782753</v>
+        <v>0.1360667523977957</v>
       </c>
       <c r="J6">
-        <v>0.1444685474782753</v>
+        <v>0.1360667523977957</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>648.665112207224</v>
+        <v>665.7853396666667</v>
       </c>
       <c r="N6">
-        <v>648.665112207224</v>
+        <v>1997.356019</v>
       </c>
       <c r="O6">
-        <v>0.5535978847751916</v>
+        <v>0.5223256404173379</v>
       </c>
       <c r="P6">
-        <v>0.5535978847751916</v>
+        <v>0.522325640417338</v>
       </c>
       <c r="Q6">
-        <v>349.9848965168381</v>
+        <v>393.4644884655273</v>
       </c>
       <c r="R6">
-        <v>349.9848965168381</v>
+        <v>3541.180396189746</v>
       </c>
       <c r="S6">
-        <v>0.07997748230051753</v>
+        <v>0.07107115358568597</v>
       </c>
       <c r="T6">
-        <v>0.07997748230051753</v>
+        <v>0.071071153585686</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.539546354398402</v>
+        <v>0.5909779999999999</v>
       </c>
       <c r="H7">
-        <v>0.539546354398402</v>
+        <v>1.772934</v>
       </c>
       <c r="I7">
-        <v>0.1444685474782753</v>
+        <v>0.1360667523977957</v>
       </c>
       <c r="J7">
-        <v>0.1444685474782753</v>
+        <v>0.1360667523977957</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>53.1169883938852</v>
+        <v>55.51027300000001</v>
       </c>
       <c r="N7">
-        <v>53.1169883938852</v>
+        <v>166.530819</v>
       </c>
       <c r="O7">
-        <v>0.04533225522245957</v>
+        <v>0.043549230010055</v>
       </c>
       <c r="P7">
-        <v>0.04533225522245957</v>
+        <v>0.04354923001005501</v>
       </c>
       <c r="Q7">
-        <v>28.65907744454299</v>
+        <v>32.805350116994</v>
       </c>
       <c r="R7">
-        <v>28.65907744454299</v>
+        <v>295.248151052946</v>
       </c>
       <c r="S7">
-        <v>0.006549085065903192</v>
+        <v>0.005925602296892807</v>
       </c>
       <c r="T7">
-        <v>0.006549085065903192</v>
+        <v>0.005925602296892808</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.451202638590928</v>
+        <v>0.4681106666666667</v>
       </c>
       <c r="H8">
-        <v>0.451202638590928</v>
+        <v>1.404332</v>
       </c>
       <c r="I8">
-        <v>0.1208136970701578</v>
+        <v>0.1077777822120289</v>
       </c>
       <c r="J8">
-        <v>0.1208136970701578</v>
+        <v>0.1077777822120289</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.27821416682553</v>
+        <v>10.45505566666667</v>
       </c>
       <c r="N8">
-        <v>8.27821416682553</v>
+        <v>31.365167</v>
       </c>
       <c r="O8">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219224</v>
       </c>
       <c r="P8">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219226</v>
       </c>
       <c r="Q8">
-        <v>3.73515207489248</v>
+        <v>4.894123078160445</v>
       </c>
       <c r="R8">
-        <v>3.73515207489248</v>
+        <v>44.04710770344401</v>
       </c>
       <c r="S8">
-        <v>0.0008535455727732599</v>
+        <v>0.0008840212602456138</v>
       </c>
       <c r="T8">
-        <v>0.0008535455727732599</v>
+        <v>0.0008840212602456141</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.451202638590928</v>
+        <v>0.4681106666666667</v>
       </c>
       <c r="H9">
-        <v>0.451202638590928</v>
+        <v>1.404332</v>
       </c>
       <c r="I9">
-        <v>0.1208136970701578</v>
+        <v>0.1077777822120289</v>
       </c>
       <c r="J9">
-        <v>0.1208136970701578</v>
+        <v>0.1077777822120289</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>164.108091289101</v>
+        <v>167.4277343333333</v>
       </c>
       <c r="N9">
-        <v>164.108091289101</v>
+        <v>502.283203</v>
       </c>
       <c r="O9">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="P9">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="Q9">
-        <v>74.04600380376326</v>
+        <v>78.37470833726624</v>
       </c>
       <c r="R9">
-        <v>74.04600380376326</v>
+        <v>705.3723750353961</v>
       </c>
       <c r="S9">
-        <v>0.01692076720332021</v>
+        <v>0.01415675644629163</v>
       </c>
       <c r="T9">
-        <v>0.01692076720332021</v>
+        <v>0.01415675644629164</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.451202638590928</v>
+        <v>0.4681106666666667</v>
       </c>
       <c r="H10">
-        <v>0.451202638590928</v>
+        <v>1.404332</v>
       </c>
       <c r="I10">
-        <v>0.1208136970701578</v>
+        <v>0.1077777822120289</v>
       </c>
       <c r="J10">
-        <v>0.1208136970701578</v>
+        <v>0.1077777822120289</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>151.920568160173</v>
+        <v>227.495678</v>
       </c>
       <c r="N10">
-        <v>151.920568160173</v>
+        <v>682.487034</v>
       </c>
       <c r="O10">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="P10">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="Q10">
-        <v>68.54696121010298</v>
+        <v>106.4931534923654</v>
       </c>
       <c r="R10">
-        <v>68.54696121010298</v>
+        <v>958.4383814312881</v>
       </c>
       <c r="S10">
-        <v>0.01566414274300411</v>
+        <v>0.01923576711381677</v>
       </c>
       <c r="T10">
-        <v>0.01566414274300411</v>
+        <v>0.01923576711381678</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.451202638590928</v>
+        <v>0.4681106666666667</v>
       </c>
       <c r="H11">
-        <v>0.451202638590928</v>
+        <v>1.404332</v>
       </c>
       <c r="I11">
-        <v>0.1208136970701578</v>
+        <v>0.1077777822120289</v>
       </c>
       <c r="J11">
-        <v>0.1208136970701578</v>
+        <v>0.1077777822120289</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>145.637165001401</v>
+        <v>147.9815903333333</v>
       </c>
       <c r="N11">
-        <v>145.637165001401</v>
+        <v>443.9447709999999</v>
       </c>
       <c r="O11">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="P11">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="Q11">
-        <v>65.71187312553448</v>
+        <v>69.27176090533023</v>
       </c>
       <c r="R11">
-        <v>65.71187312553448</v>
+        <v>623.445848147972</v>
       </c>
       <c r="S11">
-        <v>0.01501627705119682</v>
+        <v>0.01251249884749124</v>
       </c>
       <c r="T11">
-        <v>0.01501627705119682</v>
+        <v>0.01251249884749125</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.451202638590928</v>
+        <v>0.4681106666666667</v>
       </c>
       <c r="H12">
-        <v>0.451202638590928</v>
+        <v>1.404332</v>
       </c>
       <c r="I12">
-        <v>0.1208136970701578</v>
+        <v>0.1077777822120289</v>
       </c>
       <c r="J12">
-        <v>0.1208136970701578</v>
+        <v>0.1077777822120289</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>648.665112207224</v>
+        <v>665.7853396666667</v>
       </c>
       <c r="N12">
-        <v>648.665112207224</v>
+        <v>1997.356019</v>
       </c>
       <c r="O12">
-        <v>0.5535978847751916</v>
+        <v>0.5223256404173379</v>
       </c>
       <c r="P12">
-        <v>0.5535978847751916</v>
+        <v>0.522325640417338</v>
       </c>
       <c r="Q12">
-        <v>292.6794101897798</v>
+        <v>311.6612192082565</v>
       </c>
       <c r="R12">
-        <v>292.6794101897798</v>
+        <v>2804.950972874308</v>
       </c>
       <c r="S12">
-        <v>0.06688220714991014</v>
+        <v>0.05629509911665836</v>
       </c>
       <c r="T12">
-        <v>0.06688220714991014</v>
+        <v>0.05629509911665839</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.451202638590928</v>
+        <v>0.4681106666666667</v>
       </c>
       <c r="H13">
-        <v>0.451202638590928</v>
+        <v>1.404332</v>
       </c>
       <c r="I13">
-        <v>0.1208136970701578</v>
+        <v>0.1077777822120289</v>
       </c>
       <c r="J13">
-        <v>0.1208136970701578</v>
+        <v>0.1077777822120289</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>53.1169883938852</v>
+        <v>55.51027300000001</v>
       </c>
       <c r="N13">
-        <v>53.1169883938852</v>
+        <v>166.530819</v>
       </c>
       <c r="O13">
-        <v>0.04533225522245957</v>
+        <v>0.043549230010055</v>
       </c>
       <c r="P13">
-        <v>0.04533225522245957</v>
+        <v>0.04354923001005501</v>
       </c>
       <c r="Q13">
-        <v>23.9665253173247</v>
+        <v>25.98495090087867</v>
       </c>
       <c r="R13">
-        <v>23.9665253173247</v>
+        <v>233.864558107908</v>
       </c>
       <c r="S13">
-        <v>0.005476757349953311</v>
+        <v>0.004693639427525261</v>
       </c>
       <c r="T13">
-        <v>0.005476757349953311</v>
+        <v>0.004693639427525263</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,49 +1284,49 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>2.74394872368521</v>
+        <v>0.02272533333333333</v>
       </c>
       <c r="H14">
-        <v>2.74394872368521</v>
+        <v>0.068176</v>
       </c>
       <c r="I14">
-        <v>0.7347177554515669</v>
+        <v>0.00523227988829371</v>
       </c>
       <c r="J14">
-        <v>0.7347177554515669</v>
+        <v>0.005232279888293711</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.27821416682553</v>
+        <v>10.45505566666667</v>
       </c>
       <c r="N14">
-        <v>8.27821416682553</v>
+        <v>31.365167</v>
       </c>
       <c r="O14">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219224</v>
       </c>
       <c r="P14">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219226</v>
       </c>
       <c r="Q14">
-        <v>22.71499519745374</v>
+        <v>0.2375946250435556</v>
       </c>
       <c r="R14">
-        <v>22.71499519745374</v>
+        <v>2.138351625392</v>
       </c>
       <c r="S14">
-        <v>0.005190761499827449</v>
+        <v>4.291651364385698E-05</v>
       </c>
       <c r="T14">
-        <v>0.005190761499827449</v>
+        <v>4.291651364385699E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,49 +1346,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>2.74394872368521</v>
+        <v>0.02272533333333333</v>
       </c>
       <c r="H15">
-        <v>2.74394872368521</v>
+        <v>0.068176</v>
       </c>
       <c r="I15">
-        <v>0.7347177554515669</v>
+        <v>0.00523227988829371</v>
       </c>
       <c r="J15">
-        <v>0.7347177554515669</v>
+        <v>0.005232279888293711</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>164.108091289101</v>
+        <v>167.4277343333333</v>
       </c>
       <c r="N15">
-        <v>164.108091289101</v>
+        <v>502.283203</v>
       </c>
       <c r="O15">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="P15">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="Q15">
-        <v>450.3041876391446</v>
+        <v>3.804851071969778</v>
       </c>
       <c r="R15">
-        <v>450.3041876391446</v>
+        <v>34.243659647728</v>
       </c>
       <c r="S15">
-        <v>0.1029021410786106</v>
+        <v>0.0006872669906278417</v>
       </c>
       <c r="T15">
-        <v>0.1029021410786106</v>
+        <v>0.0006872669906278419</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>2.74394872368521</v>
+        <v>0.02272533333333333</v>
       </c>
       <c r="H16">
-        <v>2.74394872368521</v>
+        <v>0.068176</v>
       </c>
       <c r="I16">
-        <v>0.7347177554515669</v>
+        <v>0.00523227988829371</v>
       </c>
       <c r="J16">
-        <v>0.7347177554515669</v>
+        <v>0.005232279888293711</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>151.920568160173</v>
+        <v>227.495678</v>
       </c>
       <c r="N16">
-        <v>151.920568160173</v>
+        <v>682.487034</v>
       </c>
       <c r="O16">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="P16">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="Q16">
-        <v>416.8622491046386</v>
+        <v>5.169915114442666</v>
       </c>
       <c r="R16">
-        <v>416.8622491046386</v>
+        <v>46.529236029984</v>
       </c>
       <c r="S16">
-        <v>0.0952600911677232</v>
+        <v>0.000933837339568971</v>
       </c>
       <c r="T16">
-        <v>0.0952600911677232</v>
+        <v>0.0009338373395689712</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>2.74394872368521</v>
+        <v>0.02272533333333333</v>
       </c>
       <c r="H17">
-        <v>2.74394872368521</v>
+        <v>0.068176</v>
       </c>
       <c r="I17">
-        <v>0.7347177554515669</v>
+        <v>0.00523227988829371</v>
       </c>
       <c r="J17">
-        <v>0.7347177554515669</v>
+        <v>0.005232279888293711</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>145.637165001401</v>
+        <v>147.9815903333333</v>
       </c>
       <c r="N17">
-        <v>145.637165001401</v>
+        <v>443.9447709999999</v>
       </c>
       <c r="O17">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="P17">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="Q17">
-        <v>399.6209130267266</v>
+        <v>3.362930967521777</v>
       </c>
       <c r="R17">
-        <v>399.6209130267266</v>
+        <v>30.266378707696</v>
       </c>
       <c r="S17">
-        <v>0.09132015357403866</v>
+        <v>0.0006074433406249825</v>
       </c>
       <c r="T17">
-        <v>0.09132015357403866</v>
+        <v>0.0006074433406249827</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,10 +1520,10 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>27</v>
@@ -1532,49 +1532,49 @@
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>2.74394872368521</v>
+        <v>0.02272533333333333</v>
       </c>
       <c r="H18">
-        <v>2.74394872368521</v>
+        <v>0.068176</v>
       </c>
       <c r="I18">
-        <v>0.7347177554515669</v>
+        <v>0.00523227988829371</v>
       </c>
       <c r="J18">
-        <v>0.7347177554515669</v>
+        <v>0.005232279888293711</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>648.665112207224</v>
+        <v>665.7853396666667</v>
       </c>
       <c r="N18">
-        <v>648.665112207224</v>
+        <v>1997.356019</v>
       </c>
       <c r="O18">
-        <v>0.5535978847751916</v>
+        <v>0.5223256404173379</v>
       </c>
       <c r="P18">
-        <v>0.5535978847751916</v>
+        <v>0.522325640417338</v>
       </c>
       <c r="Q18">
-        <v>1779.903806740136</v>
+        <v>15.13019377237156</v>
       </c>
       <c r="R18">
-        <v>1779.903806740136</v>
+        <v>136.171743951344</v>
       </c>
       <c r="S18">
-        <v>0.4067381953247639</v>
+        <v>0.002732953943495769</v>
       </c>
       <c r="T18">
-        <v>0.4067381953247639</v>
+        <v>0.00273295394349577</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,805 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.02272533333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.068176</v>
+      </c>
+      <c r="I19">
+        <v>0.00523227988829371</v>
+      </c>
+      <c r="J19">
+        <v>0.005232279888293711</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>55.51027300000001</v>
+      </c>
+      <c r="N19">
+        <v>166.530819</v>
+      </c>
+      <c r="O19">
+        <v>0.043549230010055</v>
+      </c>
+      <c r="P19">
+        <v>0.04354923001005501</v>
+      </c>
+      <c r="Q19">
+        <v>1.261489457349333</v>
+      </c>
+      <c r="R19">
+        <v>11.353405116144</v>
+      </c>
+      <c r="S19">
+        <v>0.0002278617603322877</v>
+      </c>
+      <c r="T19">
+        <v>0.0002278617603322877</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.1037266666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.31118</v>
+      </c>
+      <c r="I20">
+        <v>0.02388202381540772</v>
+      </c>
+      <c r="J20">
+        <v>0.02388202381540772</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>10.45505566666667</v>
+      </c>
+      <c r="N20">
+        <v>31.365167</v>
+      </c>
+      <c r="O20">
+        <v>0.008202258778219224</v>
+      </c>
+      <c r="P20">
+        <v>0.008202258778219226</v>
+      </c>
+      <c r="Q20">
+        <v>1.084468074117778</v>
+      </c>
+      <c r="R20">
+        <v>9.760212667060001</v>
+      </c>
+      <c r="S20">
+        <v>0.0001958865394815685</v>
+      </c>
+      <c r="T20">
+        <v>0.0001958865394815686</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.1037266666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.31118</v>
+      </c>
+      <c r="I21">
+        <v>0.02388202381540772</v>
+      </c>
+      <c r="J21">
+        <v>0.02388202381540772</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>167.4277343333333</v>
+      </c>
+      <c r="N21">
+        <v>502.283203</v>
+      </c>
+      <c r="O21">
+        <v>0.1313513430666197</v>
+      </c>
+      <c r="P21">
+        <v>0.1313513430666197</v>
+      </c>
+      <c r="Q21">
+        <v>17.36672078994889</v>
+      </c>
+      <c r="R21">
+        <v>156.30048710954</v>
+      </c>
+      <c r="S21">
+        <v>0.003136935903302801</v>
+      </c>
+      <c r="T21">
+        <v>0.003136935903302802</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.1037266666666667</v>
+      </c>
+      <c r="H22">
+        <v>0.31118</v>
+      </c>
+      <c r="I22">
+        <v>0.02388202381540772</v>
+      </c>
+      <c r="J22">
+        <v>0.02388202381540772</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>227.495678</v>
+      </c>
+      <c r="N22">
+        <v>682.487034</v>
+      </c>
+      <c r="O22">
+        <v>0.1784761823728629</v>
+      </c>
+      <c r="P22">
+        <v>0.1784761823728629</v>
+      </c>
+      <c r="Q22">
+        <v>23.59736836001333</v>
+      </c>
+      <c r="R22">
+        <v>212.37631524012</v>
+      </c>
+      <c r="S22">
+        <v>0.004262372437911764</v>
+      </c>
+      <c r="T22">
+        <v>0.004262372437911765</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.1037266666666667</v>
+      </c>
+      <c r="H23">
+        <v>0.31118</v>
+      </c>
+      <c r="I23">
+        <v>0.02388202381540772</v>
+      </c>
+      <c r="J23">
+        <v>0.02388202381540772</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>147.9815903333333</v>
+      </c>
+      <c r="N23">
+        <v>443.9447709999999</v>
+      </c>
+      <c r="O23">
+        <v>0.1160953453549051</v>
+      </c>
+      <c r="P23">
+        <v>0.1160953453549051</v>
+      </c>
+      <c r="Q23">
+        <v>15.34963709330889</v>
+      </c>
+      <c r="R23">
+        <v>138.14673383978</v>
+      </c>
+      <c r="S23">
+        <v>0.002772591802623827</v>
+      </c>
+      <c r="T23">
+        <v>0.002772591802623829</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.1037266666666667</v>
+      </c>
+      <c r="H24">
+        <v>0.31118</v>
+      </c>
+      <c r="I24">
+        <v>0.02388202381540772</v>
+      </c>
+      <c r="J24">
+        <v>0.02388202381540772</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>665.7853396666667</v>
+      </c>
+      <c r="N24">
+        <v>1997.356019</v>
+      </c>
+      <c r="O24">
+        <v>0.5223256404173379</v>
+      </c>
+      <c r="P24">
+        <v>0.522325640417338</v>
+      </c>
+      <c r="Q24">
+        <v>69.05969399915779</v>
+      </c>
+      <c r="R24">
+        <v>621.53724599242</v>
+      </c>
+      <c r="S24">
+        <v>0.01247419338384495</v>
+      </c>
+      <c r="T24">
+        <v>0.01247419338384496</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.1037266666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.31118</v>
+      </c>
+      <c r="I25">
+        <v>0.02388202381540772</v>
+      </c>
+      <c r="J25">
+        <v>0.02388202381540772</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>55.51027300000001</v>
+      </c>
+      <c r="N25">
+        <v>166.530819</v>
+      </c>
+      <c r="O25">
+        <v>0.043549230010055</v>
+      </c>
+      <c r="P25">
+        <v>0.04354923001005501</v>
+      </c>
+      <c r="Q25">
+        <v>5.757895584046667</v>
+      </c>
+      <c r="R25">
+        <v>51.82106025642</v>
+      </c>
+      <c r="S25">
+        <v>0.001040043748242802</v>
+      </c>
+      <c r="T25">
+        <v>0.001040043748242802</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>3.157754</v>
+      </c>
+      <c r="H26">
+        <v>9.473262</v>
+      </c>
+      <c r="I26">
+        <v>0.7270411616864739</v>
+      </c>
+      <c r="J26">
+        <v>0.727041161686474</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>10.45505566666667</v>
+      </c>
+      <c r="N26">
+        <v>31.365167</v>
+      </c>
+      <c r="O26">
+        <v>0.008202258778219224</v>
+      </c>
+      <c r="P26">
+        <v>0.008202258778219226</v>
+      </c>
+      <c r="Q26">
+        <v>33.01449385163934</v>
+      </c>
+      <c r="R26">
+        <v>297.130444664754</v>
+      </c>
+      <c r="S26">
+        <v>0.005963379750569583</v>
+      </c>
+      <c r="T26">
+        <v>0.005963379750569585</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>3.157754</v>
+      </c>
+      <c r="H27">
+        <v>9.473262</v>
+      </c>
+      <c r="I27">
+        <v>0.7270411616864739</v>
+      </c>
+      <c r="J27">
+        <v>0.727041161686474</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>167.4277343333333</v>
+      </c>
+      <c r="N27">
+        <v>502.283203</v>
+      </c>
+      <c r="O27">
+        <v>0.1313513430666197</v>
+      </c>
+      <c r="P27">
+        <v>0.1313513430666197</v>
+      </c>
+      <c r="Q27">
+        <v>528.6955978020208</v>
+      </c>
+      <c r="R27">
+        <v>4758.260380218187</v>
+      </c>
+      <c r="S27">
+        <v>0.09549783305223375</v>
+      </c>
+      <c r="T27">
+        <v>0.09549783305223379</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>2.74394872368521</v>
-      </c>
-      <c r="H19">
-        <v>2.74394872368521</v>
-      </c>
-      <c r="I19">
-        <v>0.7347177554515669</v>
-      </c>
-      <c r="J19">
-        <v>0.7347177554515669</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>53.1169883938852</v>
-      </c>
-      <c r="N19">
-        <v>53.1169883938852</v>
-      </c>
-      <c r="O19">
-        <v>0.04533225522245957</v>
-      </c>
-      <c r="P19">
-        <v>0.04533225522245957</v>
-      </c>
-      <c r="Q19">
-        <v>145.7502925094034</v>
-      </c>
-      <c r="R19">
-        <v>145.7502925094034</v>
-      </c>
-      <c r="S19">
-        <v>0.03330641280660306</v>
-      </c>
-      <c r="T19">
-        <v>0.03330641280660306</v>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>3.157754</v>
+      </c>
+      <c r="H28">
+        <v>9.473262</v>
+      </c>
+      <c r="I28">
+        <v>0.7270411616864739</v>
+      </c>
+      <c r="J28">
+        <v>0.727041161686474</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>227.495678</v>
+      </c>
+      <c r="N28">
+        <v>682.487034</v>
+      </c>
+      <c r="O28">
+        <v>0.1784761823728629</v>
+      </c>
+      <c r="P28">
+        <v>0.1784761823728629</v>
+      </c>
+      <c r="Q28">
+        <v>718.375387187212</v>
+      </c>
+      <c r="R28">
+        <v>6465.378484684908</v>
+      </c>
+      <c r="S28">
+        <v>0.1297595309657332</v>
+      </c>
+      <c r="T28">
+        <v>0.1297595309657333</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>3.157754</v>
+      </c>
+      <c r="H29">
+        <v>9.473262</v>
+      </c>
+      <c r="I29">
+        <v>0.7270411616864739</v>
+      </c>
+      <c r="J29">
+        <v>0.727041161686474</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>147.9815903333333</v>
+      </c>
+      <c r="N29">
+        <v>443.9447709999999</v>
+      </c>
+      <c r="O29">
+        <v>0.1160953453549051</v>
+      </c>
+      <c r="P29">
+        <v>0.1160953453549051</v>
+      </c>
+      <c r="Q29">
+        <v>467.2894588014447</v>
+      </c>
+      <c r="R29">
+        <v>4205.605129213001</v>
+      </c>
+      <c r="S29">
+        <v>0.08440609475322258</v>
+      </c>
+      <c r="T29">
+        <v>0.08440609475322261</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>3.157754</v>
+      </c>
+      <c r="H30">
+        <v>9.473262</v>
+      </c>
+      <c r="I30">
+        <v>0.7270411616864739</v>
+      </c>
+      <c r="J30">
+        <v>0.727041161686474</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>665.7853396666667</v>
+      </c>
+      <c r="N30">
+        <v>1997.356019</v>
+      </c>
+      <c r="O30">
+        <v>0.5223256404173379</v>
+      </c>
+      <c r="P30">
+        <v>0.522325640417338</v>
+      </c>
+      <c r="Q30">
+        <v>2102.386319473776</v>
+      </c>
+      <c r="R30">
+        <v>18921.47687526398</v>
+      </c>
+      <c r="S30">
+        <v>0.3797522403876528</v>
+      </c>
+      <c r="T30">
+        <v>0.3797522403876529</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>3.157754</v>
+      </c>
+      <c r="H31">
+        <v>9.473262</v>
+      </c>
+      <c r="I31">
+        <v>0.7270411616864739</v>
+      </c>
+      <c r="J31">
+        <v>0.727041161686474</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>55.51027300000001</v>
+      </c>
+      <c r="N31">
+        <v>166.530819</v>
+      </c>
+      <c r="O31">
+        <v>0.043549230010055</v>
+      </c>
+      <c r="P31">
+        <v>0.04354923001005501</v>
+      </c>
+      <c r="Q31">
+        <v>175.287786606842</v>
+      </c>
+      <c r="R31">
+        <v>1577.590079461578</v>
+      </c>
+      <c r="S31">
+        <v>0.03166208277706184</v>
+      </c>
+      <c r="T31">
+        <v>0.03166208277706185</v>
       </c>
     </row>
   </sheetData>
